--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H2">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J2">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N2">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P2">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q2">
-        <v>171.2814257780084</v>
+        <v>209.1521934165796</v>
       </c>
       <c r="R2">
-        <v>1541.532832002075</v>
+        <v>1882.369740749216</v>
       </c>
       <c r="S2">
-        <v>0.2931974053567917</v>
+        <v>0.3263055105867259</v>
       </c>
       <c r="T2">
-        <v>0.2931974053567917</v>
+        <v>0.3263055105867259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H3">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J3">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>38.717137</v>
       </c>
       <c r="O3">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P3">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q3">
-        <v>307.4671317672106</v>
+        <v>306.2717229547192</v>
       </c>
       <c r="R3">
-        <v>2767.204185904895</v>
+        <v>2756.445506592472</v>
       </c>
       <c r="S3">
-        <v>0.5263183959215707</v>
+        <v>0.4778250196877627</v>
       </c>
       <c r="T3">
-        <v>0.5263183959215709</v>
+        <v>0.4778250196877628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H4">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J4">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N4">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O4">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P4">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q4">
-        <v>35.50053909424611</v>
+        <v>39.15508392315378</v>
       </c>
       <c r="R4">
-        <v>319.504851848215</v>
+        <v>352.395755308384</v>
       </c>
       <c r="S4">
-        <v>0.0607693794229072</v>
+        <v>0.06108718939496426</v>
       </c>
       <c r="T4">
-        <v>0.06076937942290721</v>
+        <v>0.06108718939496428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.82411166666667</v>
+        <v>23.73148533333334</v>
       </c>
       <c r="H5">
-        <v>71.47233500000002</v>
+        <v>71.194456</v>
       </c>
       <c r="I5">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801144</v>
       </c>
       <c r="J5">
-        <v>0.8811513593020099</v>
+        <v>0.8653076146801145</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N5">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O5">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P5">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q5">
-        <v>0.506008249058889</v>
+        <v>0.05762004638933334</v>
       </c>
       <c r="R5">
-        <v>4.55407424153</v>
+        <v>0.518580417504</v>
       </c>
       <c r="S5">
-        <v>0.0008661786007403036</v>
+        <v>8.989501066170422E-05</v>
       </c>
       <c r="T5">
-        <v>0.0008661786007403039</v>
+        <v>8.989501066170423E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.413636</v>
       </c>
       <c r="I6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J6">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N6">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P6">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q6">
-        <v>17.76656862098</v>
+        <v>21.77948000041067</v>
       </c>
       <c r="R6">
-        <v>159.89911758882</v>
+        <v>196.015320003696</v>
       </c>
       <c r="S6">
-        <v>0.03041259026250791</v>
+        <v>0.03397891375536505</v>
       </c>
       <c r="T6">
-        <v>0.03041259026250791</v>
+        <v>0.03397891375536505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.413636</v>
       </c>
       <c r="I7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J7">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>38.717137</v>
       </c>
       <c r="O7">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P7">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q7">
         <v>31.89275118668133</v>
@@ -883,10 +883,10 @@
         <v>287.034760680132</v>
       </c>
       <c r="S7">
-        <v>0.05459361314369272</v>
+        <v>0.04975697500459735</v>
       </c>
       <c r="T7">
-        <v>0.05459361314369274</v>
+        <v>0.04975697500459736</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.413636</v>
       </c>
       <c r="I8">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J8">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N8">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O8">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P8">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q8">
-        <v>3.682376889582666</v>
+        <v>4.077305397989333</v>
       </c>
       <c r="R8">
-        <v>33.141392006244</v>
+        <v>36.695748581904</v>
       </c>
       <c r="S8">
-        <v>0.006303446767022849</v>
+        <v>0.006361143997466955</v>
       </c>
       <c r="T8">
-        <v>0.00630344676702285</v>
+        <v>0.006361143997466958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.413636</v>
       </c>
       <c r="I9">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350319</v>
       </c>
       <c r="J9">
-        <v>0.0913994965852216</v>
+        <v>0.09010639372350321</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N9">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O9">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P9">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q9">
-        <v>0.05248689540533333</v>
+        <v>0.006000102736</v>
       </c>
       <c r="R9">
-        <v>0.472382058648</v>
+        <v>0.054000924624</v>
       </c>
       <c r="S9">
-        <v>8.984641199812405E-05</v>
+        <v>9.360966073847017E-06</v>
       </c>
       <c r="T9">
-        <v>8.984641199812406E-05</v>
+        <v>9.360966073847018E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H10">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J10">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N10">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P10">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q10">
-        <v>5.131710964604999</v>
+        <v>10.12348711308933</v>
       </c>
       <c r="R10">
-        <v>46.18539868144499</v>
+        <v>91.111384017804</v>
       </c>
       <c r="S10">
-        <v>0.008784398734590448</v>
+        <v>0.01579399946705458</v>
       </c>
       <c r="T10">
-        <v>0.00878439873459045</v>
+        <v>0.01579399946705458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H11">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I11">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J11">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>38.717137</v>
       </c>
       <c r="O11">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P11">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q11">
-        <v>9.211929689272999</v>
+        <v>14.82431424594367</v>
       </c>
       <c r="R11">
-        <v>82.907367203457</v>
+        <v>133.418828213493</v>
       </c>
       <c r="S11">
-        <v>0.0157688661859027</v>
+        <v>0.02312792110903711</v>
       </c>
       <c r="T11">
-        <v>0.01576886618590271</v>
+        <v>0.02312792110903711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H12">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I12">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J12">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N12">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O12">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P12">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q12">
-        <v>1.063620908641</v>
+        <v>1.895203588510667</v>
       </c>
       <c r="R12">
-        <v>9.572588177768999</v>
+        <v>17.056832296596</v>
       </c>
       <c r="S12">
-        <v>0.001820692986879692</v>
+        <v>0.002956772121356802</v>
       </c>
       <c r="T12">
-        <v>0.001820692986879692</v>
+        <v>0.002956772121356803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7137869999999999</v>
+        <v>1.148663</v>
       </c>
       <c r="H13">
-        <v>2.141361</v>
+        <v>3.445989</v>
       </c>
       <c r="I13">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="J13">
-        <v>0.02639990922230694</v>
+        <v>0.04188304383987305</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N13">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O13">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P13">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q13">
-        <v>0.015160360022</v>
+        <v>0.002788953764</v>
       </c>
       <c r="R13">
-        <v>0.136443240198</v>
+        <v>0.025100583876</v>
       </c>
       <c r="S13">
-        <v>2.595131493409103E-05</v>
+        <v>4.351142424560635E-06</v>
       </c>
       <c r="T13">
-        <v>2.595131493409104E-05</v>
+        <v>4.351142424560635E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H14">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I14">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J14">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.189414999999999</v>
+        <v>8.813278666666667</v>
       </c>
       <c r="N14">
-        <v>21.568245</v>
+        <v>26.439836</v>
       </c>
       <c r="O14">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="P14">
-        <v>0.3327435204651371</v>
+        <v>0.3770976991891536</v>
       </c>
       <c r="Q14">
-        <v>0.2039541176633333</v>
+        <v>0.6533254098004444</v>
       </c>
       <c r="R14">
-        <v>1.83558705897</v>
+        <v>5.879928688204</v>
       </c>
       <c r="S14">
-        <v>0.0003491261112470316</v>
+        <v>0.00101927538000812</v>
       </c>
       <c r="T14">
-        <v>0.0003491261112470316</v>
+        <v>0.00101927538000812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H15">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I15">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J15">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>38.717137</v>
       </c>
       <c r="O15">
-        <v>0.5973075912162077</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="P15">
-        <v>0.5973075912162079</v>
+        <v>0.5522024902836482</v>
       </c>
       <c r="Q15">
-        <v>0.3661178512802222</v>
+        <v>0.9566961533658889</v>
       </c>
       <c r="R15">
-        <v>3.295060661522</v>
+        <v>8.610265380293001</v>
       </c>
       <c r="S15">
-        <v>0.0006267159650415953</v>
+        <v>0.001492574482251003</v>
       </c>
       <c r="T15">
-        <v>0.0006267159650415955</v>
+        <v>0.001492574482251004</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H16">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I16">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J16">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.490109666666666</v>
+        <v>1.649921333333333</v>
       </c>
       <c r="N16">
-        <v>4.470329</v>
+        <v>4.949764</v>
       </c>
       <c r="O16">
-        <v>0.0689658805849709</v>
+        <v>0.07059592260441032</v>
       </c>
       <c r="P16">
-        <v>0.06896588058497091</v>
+        <v>0.07059592260441033</v>
       </c>
       <c r="Q16">
-        <v>0.04227242443044444</v>
+        <v>0.1223081184662222</v>
       </c>
       <c r="R16">
-        <v>0.380451819874</v>
+        <v>1.100773066196</v>
       </c>
       <c r="S16">
-        <v>7.236140816115688E-05</v>
+        <v>0.000190817090622291</v>
       </c>
       <c r="T16">
-        <v>7.236140816115691E-05</v>
+        <v>0.000190817090622291</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.02836866666666667</v>
+        <v>0.07412966666666666</v>
       </c>
       <c r="H17">
-        <v>0.085106</v>
+        <v>0.222389</v>
       </c>
       <c r="I17">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509242</v>
       </c>
       <c r="J17">
-        <v>0.001049234890461559</v>
+        <v>0.002702947756509243</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02123933333333333</v>
+        <v>0.002428</v>
       </c>
       <c r="N17">
-        <v>0.063718</v>
+        <v>0.007284</v>
       </c>
       <c r="O17">
-        <v>0.0009830077336842938</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="P17">
-        <v>0.000983007733684294</v>
+        <v>0.0001038879227879399</v>
       </c>
       <c r="Q17">
-        <v>0.0006025315675555555</v>
+        <v>0.0001799868306666667</v>
       </c>
       <c r="R17">
-        <v>0.005422784108</v>
+        <v>0.001619881476</v>
       </c>
       <c r="S17">
-        <v>1.031406011775105E-06</v>
+        <v>2.808036278280677E-07</v>
       </c>
       <c r="T17">
-        <v>1.031406011775106E-06</v>
+        <v>2.808036278280677E-07</v>
       </c>
     </row>
   </sheetData>
